--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD6201E-D9B1-4800-9FD5-B45EA1691DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E656E5B-90BF-4C0F-9FB8-BBEF4A1F32AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{3F2D004A-C89F-44E2-B07E-ED0C5D86EA62}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{78D15950-7EC6-4FBC-949F-986262DB201F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A165E5D-C5B0-4A87-A522-65660C905376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6941DAC9-FA35-4823-AB84-72B1AC82A337}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
